--- a/Lab2/Economic.xlsx
+++ b/Lab2/Economic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
   <si>
     <t>Quý 1-2017</t>
   </si>
@@ -93,9 +92,6 @@
   </si>
   <si>
     <t>5,819,131,316,070</t>
-  </si>
-  <si>
-    <t>6,540,841,887,346</t>
   </si>
   <si>
     <t>6,270,299,324,342</t>
@@ -371,20 +367,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -400,15 +395,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -696,20 +698,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -740,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -757,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -774,7 +778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -791,346 +795,348 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1">
+        <v>6540841887346</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>97</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>107</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>111</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>112</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>115</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>